--- a/01-Lesson-Plans/01-Excel/3/Activities/04-Ins_ScatterPlot/Solved/ScatterPlot.xlsx
+++ b/01-Lesson-Plans/01-Excel/3/Activities/04-Ins_ScatterPlot/Solved/ScatterPlot.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dcorless/Documents/coding-boot-camp/DataViz-Lesson-Plans/01-Lesson-Plans/01-Excel/3/Activities/04-Ins_ScatterPlot/Solved/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8512a5b4b9cbd9d/UCB/temp/UCB-VIRT-DATA-PT-08-2023-U-LOLC/01-Lesson-Plans/01-Excel/3/Activities/04-Ins_ScatterPlot/Solved/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D266200B-83EC-034E-9654-9F2E1528238A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{D266200B-83EC-034E-9654-9F2E1528238A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF99BF06-0281-4377-A296-90E715A47E74}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="14380" windowHeight="14080" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Normal Trend" sheetId="1" r:id="rId1"/>
@@ -94,8 +94,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -232,6 +231,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'Normal Trend'!$A$2:$A$10</c:f>
@@ -547,6 +560,21 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="movingAvg"/>
+            <c:period val="4"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -913,6 +941,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:trendline>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
@@ -3297,88 +3339,88 @@
       <selection sqref="A1:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="20.6640625" customWidth="1"/>
+    <col min="1" max="2" width="20.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
         <v>42763</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>19455</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
         <v>195387</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>93965</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
         <v>35672</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>20858</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
         <v>217637</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>107164</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
         <v>74734</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>34036</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
         <v>130550</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>87806</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
         <v>42976</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>17927</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
         <v>151132</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>91518</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
         <v>54936</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>29479</v>
       </c>
     </row>
@@ -3394,15 +3436,15 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B13"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="20.6640625" customWidth="1"/>
+    <col min="1" max="2" width="20.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -3410,7 +3452,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3419,101 +3461,101 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <f t="shared" ref="B3:B13" si="0">A3^3</f>
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <f t="shared" si="0"/>
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <f t="shared" si="0"/>
         <v>216</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
         <f t="shared" si="0"/>
         <v>343</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
         <f t="shared" si="0"/>
         <v>512</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10">
         <f t="shared" si="0"/>
         <v>729</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
         <f t="shared" si="0"/>
         <v>1331</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
         <f t="shared" si="0"/>
         <v>1728</v>
       </c>
@@ -3526,145 +3568,133 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B12"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="12.6640625" customWidth="1"/>
+    <col min="1" max="2" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
         <f>2^ROW()</f>
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <f>A2+0.1</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <f t="shared" ref="B3:B12" si="0">2^ROW()</f>
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
         <f t="shared" ref="A4:A12" si="1">A3+0.1</f>
         <v>1.2000000000000002</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5">
         <f t="shared" si="1"/>
         <v>1.3000000000000003</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6">
         <f t="shared" si="1"/>
         <v>1.4000000000000004</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7">
         <f t="shared" si="1"/>
         <v>1.5000000000000004</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <f t="shared" si="0"/>
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8">
         <f t="shared" si="1"/>
         <v>1.6000000000000005</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
         <f t="shared" si="0"/>
         <v>256</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9">
         <f t="shared" si="1"/>
         <v>1.7000000000000006</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
         <f t="shared" si="0"/>
         <v>512</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10">
         <f t="shared" si="1"/>
         <v>1.8000000000000007</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10">
         <f t="shared" si="0"/>
         <v>1024</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11">
         <f t="shared" si="1"/>
         <v>1.9000000000000008</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11">
         <f t="shared" si="0"/>
         <v>2048</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12">
         <f t="shared" si="1"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
         <f t="shared" si="0"/>
         <v>4096</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
